--- a/biology/Médecine/Georges_Brohée/Georges_Brohée.xlsx
+++ b/biology/Médecine/Georges_Brohée/Georges_Brohée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Georges_Broh%C3%A9e</t>
+          <t>Georges_Brohée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Georges Brohée, né en 1887 à Ghlin, et mort en 1957 à Bruxelles, est un chirurgien et radiologue belge considéré comme un des pères de la gastro-entérologie[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Georges Brohée, né en 1887 à Ghlin, et mort en 1957 à Bruxelles, est un chirurgien et radiologue belge considéré comme un des pères de la gastro-entérologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Georges_Broh%C3%A9e</t>
+          <t>Georges_Brohée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est l’instigateur de la Société mondiale de gastro-entérologie (fondée à Washington un an après son décès). Il avait auparavant créé la Société Royale Belge de Gastro-Entérologie (SRBGE) (1928) et organisé le premier congrès international de gastro-entérologie (Bruxelles, 1935). Professeur à l’Université libre de Bruxelles et fondateur, puis président, de l’Association des sociétés scientifiques médicales belges, l’unique fonds de la Société royale belge de gastro-entérologie et un prix portent son nom[2],[3]. Il est également en 1933 le fondateur avec deux ses collègues, Joseph Massion et Léon Daumerie du premier journal national de gastro-entérologie appelé “Le Journal Belge de Gastro- Entérologie”. Celui-ci sera appelé après la deuxième guerre mondiale "Acta Gastro-Enterologica Belgica". Il en restera rédacteur-en-chef jusqu'à son décès en 1957[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est l’instigateur de la Société mondiale de gastro-entérologie (fondée à Washington un an après son décès). Il avait auparavant créé la Société Royale Belge de Gastro-Entérologie (SRBGE) (1928) et organisé le premier congrès international de gastro-entérologie (Bruxelles, 1935). Professeur à l’Université libre de Bruxelles et fondateur, puis président, de l’Association des sociétés scientifiques médicales belges, l’unique fonds de la Société royale belge de gastro-entérologie et un prix portent son nom,. Il est également en 1933 le fondateur avec deux ses collègues, Joseph Massion et Léon Daumerie du premier journal national de gastro-entérologie appelé “Le Journal Belge de Gastro- Entérologie”. Celui-ci sera appelé après la deuxième guerre mondiale "Acta Gastro-Enterologica Belgica". Il en restera rédacteur-en-chef jusqu'à son décès en 1957.
 </t>
         </is>
       </c>
